--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plau-St14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plau-St14.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H2">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I2">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J2">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6061559999999999</v>
+        <v>0.6625783333333333</v>
       </c>
       <c r="N2">
-        <v>1.818468</v>
+        <v>1.987735</v>
       </c>
       <c r="O2">
-        <v>0.3160163135757245</v>
+        <v>0.2722635610602984</v>
       </c>
       <c r="P2">
-        <v>0.3250988409043574</v>
+        <v>0.280021914495151</v>
       </c>
       <c r="Q2">
-        <v>15.339400506316</v>
+        <v>21.14177716608722</v>
       </c>
       <c r="R2">
-        <v>138.054604556844</v>
+        <v>190.275994494785</v>
       </c>
       <c r="S2">
-        <v>0.0374520828647502</v>
+        <v>0.03064425715490829</v>
       </c>
       <c r="T2">
-        <v>0.0397379263082991</v>
+        <v>0.03242270896644777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H3">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I3">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J3">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.296278</v>
       </c>
       <c r="O3">
-        <v>0.2252692898249037</v>
+        <v>0.1775534789114854</v>
       </c>
       <c r="P3">
-        <v>0.2317436849533886</v>
+        <v>0.1826129978482772</v>
       </c>
       <c r="Q3">
-        <v>10.93454897723045</v>
+        <v>13.78736130384645</v>
       </c>
       <c r="R3">
-        <v>98.41094079507401</v>
+        <v>124.086251734618</v>
       </c>
       <c r="S3">
-        <v>0.0266973689235954</v>
+        <v>0.01998429185794394</v>
       </c>
       <c r="T3">
-        <v>0.02832681116141134</v>
+        <v>0.02114408828823208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H4">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I4">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J4">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.552724</v>
+        <v>0.5835723333333332</v>
       </c>
       <c r="N4">
-        <v>1.658172</v>
+        <v>1.750717</v>
       </c>
       <c r="O4">
-        <v>0.2881598151380647</v>
+        <v>0.2397987884847841</v>
       </c>
       <c r="P4">
-        <v>0.2964417274431336</v>
+        <v>0.2466320339880352</v>
       </c>
       <c r="Q4">
-        <v>13.98724883603067</v>
+        <v>18.62082656635855</v>
       </c>
       <c r="R4">
-        <v>125.885239524276</v>
+        <v>167.587439097227</v>
       </c>
       <c r="S4">
-        <v>0.0341507220077607</v>
+        <v>0.02699022855333813</v>
       </c>
       <c r="T4">
-        <v>0.0362350708082215</v>
+        <v>0.02855661734266014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H5">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I5">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J5">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1607635</v>
+        <v>0.202277</v>
       </c>
       <c r="N5">
-        <v>0.321527</v>
+        <v>0.404554</v>
       </c>
       <c r="O5">
-        <v>0.08381322403396319</v>
+        <v>0.08311870999996575</v>
       </c>
       <c r="P5">
-        <v>0.05748138269106486</v>
+        <v>0.0569914931299551</v>
       </c>
       <c r="Q5">
-        <v>4.068285578790167</v>
+        <v>6.454324031862333</v>
       </c>
       <c r="R5">
-        <v>24.409713472741</v>
+        <v>38.72594419117399</v>
       </c>
       <c r="S5">
-        <v>0.009932967624880839</v>
+        <v>0.00935531407032132</v>
       </c>
       <c r="T5">
-        <v>0.007026143012760459</v>
+        <v>0.006598835661299073</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H6">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I6">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J6">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.16638</v>
+        <v>0.5530713333333334</v>
       </c>
       <c r="N6">
-        <v>0.49914</v>
+        <v>1.659214</v>
       </c>
       <c r="O6">
-        <v>0.08674135742734386</v>
+        <v>0.2272654615434663</v>
       </c>
       <c r="P6">
-        <v>0.08923436400805566</v>
+        <v>0.2337415605385816</v>
       </c>
       <c r="Q6">
-        <v>4.210416883180001</v>
+        <v>17.64759017618156</v>
       </c>
       <c r="R6">
-        <v>37.89375194862</v>
+        <v>158.828311585634</v>
       </c>
       <c r="S6">
-        <v>0.01027998988220382</v>
+        <v>0.02557955687806675</v>
       </c>
       <c r="T6">
-        <v>0.01090741686822337</v>
+        <v>0.0270640767683095</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>196.709926</v>
       </c>
       <c r="I7">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J7">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6061559999999999</v>
+        <v>0.6625783333333333</v>
       </c>
       <c r="N7">
-        <v>1.818468</v>
+        <v>1.987735</v>
       </c>
       <c r="O7">
-        <v>0.3160163135757245</v>
+        <v>0.2722635610602984</v>
       </c>
       <c r="P7">
-        <v>0.3250988409043574</v>
+        <v>0.280021914495151</v>
       </c>
       <c r="Q7">
-        <v>39.74563396815199</v>
+        <v>43.44524497306777</v>
       </c>
       <c r="R7">
-        <v>357.7107057133679</v>
+        <v>391.0072047576099</v>
       </c>
       <c r="S7">
-        <v>0.0970413919549428</v>
+        <v>0.06297234374640191</v>
       </c>
       <c r="T7">
-        <v>0.1029641981805437</v>
+        <v>0.06662696908930202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>196.709926</v>
       </c>
       <c r="I8">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J8">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.296278</v>
       </c>
       <c r="O8">
-        <v>0.2252692898249037</v>
+        <v>0.1775534789114854</v>
       </c>
       <c r="P8">
-        <v>0.2317436849533886</v>
+        <v>0.1826129978482772</v>
       </c>
       <c r="Q8">
         <v>28.33230549504756</v>
@@ -948,10 +948,10 @@
         <v>254.990749455428</v>
       </c>
       <c r="S8">
-        <v>0.06917505366086693</v>
+        <v>0.04106667327732237</v>
       </c>
       <c r="T8">
-        <v>0.07339707099001956</v>
+        <v>0.043449994208052</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>196.709926</v>
       </c>
       <c r="I9">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J9">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.552724</v>
+        <v>0.5835723333333332</v>
       </c>
       <c r="N9">
-        <v>1.658172</v>
+        <v>1.750717</v>
       </c>
       <c r="O9">
-        <v>0.2881598151380647</v>
+        <v>0.2397987884847841</v>
       </c>
       <c r="P9">
-        <v>0.2964417274431336</v>
+        <v>0.2466320339880352</v>
       </c>
       <c r="Q9">
-        <v>36.24209904614133</v>
+        <v>38.26482350188244</v>
       </c>
       <c r="R9">
-        <v>326.178891415272</v>
+        <v>344.383411516942</v>
       </c>
       <c r="S9">
-        <v>0.0884872975387587</v>
+        <v>0.0554635063158165</v>
       </c>
       <c r="T9">
-        <v>0.09388801476046242</v>
+        <v>0.05868235325288108</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>196.709926</v>
       </c>
       <c r="I10">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J10">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1607635</v>
+        <v>0.202277</v>
       </c>
       <c r="N10">
-        <v>0.321527</v>
+        <v>0.404554</v>
       </c>
       <c r="O10">
-        <v>0.08381322403396319</v>
+        <v>0.08311870999996575</v>
       </c>
       <c r="P10">
-        <v>0.05748138269106486</v>
+        <v>0.0569914931299551</v>
       </c>
       <c r="Q10">
-        <v>10.54125872950033</v>
+        <v>13.26329790050067</v>
       </c>
       <c r="R10">
-        <v>63.247552377002</v>
+        <v>79.57978740300399</v>
       </c>
       <c r="S10">
-        <v>0.02573712677190105</v>
+        <v>0.0192246805172585</v>
       </c>
       <c r="T10">
-        <v>0.01820530784616264</v>
+        <v>0.01356026173154545</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>196.709926</v>
       </c>
       <c r="I11">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J11">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.16638</v>
+        <v>0.5530713333333334</v>
       </c>
       <c r="N11">
-        <v>0.49914</v>
+        <v>1.659214</v>
       </c>
       <c r="O11">
-        <v>0.08674135742734386</v>
+        <v>0.2272654615434663</v>
       </c>
       <c r="P11">
-        <v>0.08923436400805566</v>
+        <v>0.2337415605385816</v>
       </c>
       <c r="Q11">
-        <v>10.90953249596</v>
+        <v>36.26487368424045</v>
       </c>
       <c r="R11">
-        <v>98.18579246364</v>
+        <v>326.383863158164</v>
       </c>
       <c r="S11">
-        <v>0.02663628965722254</v>
+        <v>0.05256464989389557</v>
       </c>
       <c r="T11">
-        <v>0.0282620039944814</v>
+        <v>0.0556152605304717</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H12">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I12">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J12">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6061559999999999</v>
+        <v>0.6625783333333333</v>
       </c>
       <c r="N12">
-        <v>1.818468</v>
+        <v>1.987735</v>
       </c>
       <c r="O12">
-        <v>0.3160163135757245</v>
+        <v>0.2722635610602984</v>
       </c>
       <c r="P12">
-        <v>0.3250988409043574</v>
+        <v>0.280021914495151</v>
       </c>
       <c r="Q12">
-        <v>32.031422366576</v>
+        <v>56.70305555708833</v>
       </c>
       <c r="R12">
-        <v>288.282801299184</v>
+        <v>510.327500013795</v>
       </c>
       <c r="S12">
-        <v>0.0782066733478185</v>
+        <v>0.08218907059278469</v>
       </c>
       <c r="T12">
-        <v>0.08297992486922152</v>
+        <v>0.08695894642125043</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H13">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I13">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J13">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.296278</v>
       </c>
       <c r="O13">
-        <v>0.2252692898249037</v>
+        <v>0.1775534789114854</v>
       </c>
       <c r="P13">
-        <v>0.2317436849533886</v>
+        <v>0.1826129978482772</v>
       </c>
       <c r="Q13">
-        <v>22.83330150571822</v>
+        <v>36.97823072564067</v>
       </c>
       <c r="R13">
-        <v>205.499713551464</v>
+        <v>332.8040765307661</v>
       </c>
       <c r="S13">
-        <v>0.05574889968586937</v>
+        <v>0.05359863565811025</v>
       </c>
       <c r="T13">
-        <v>0.05915146763628767</v>
+        <v>0.05670925407513863</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H14">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I14">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J14">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.552724</v>
+        <v>0.5835723333333332</v>
       </c>
       <c r="N14">
-        <v>1.658172</v>
+        <v>1.750717</v>
       </c>
       <c r="O14">
-        <v>0.2881598151380647</v>
+        <v>0.2397987884847841</v>
       </c>
       <c r="P14">
-        <v>0.2964417274431336</v>
+        <v>0.2466320339880352</v>
       </c>
       <c r="Q14">
-        <v>29.20788690723733</v>
+        <v>49.94176955969433</v>
       </c>
       <c r="R14">
-        <v>262.870982165136</v>
+        <v>449.475926037249</v>
       </c>
       <c r="S14">
-        <v>0.07131283913629435</v>
+        <v>0.07238882602609917</v>
       </c>
       <c r="T14">
-        <v>0.07566533366561679</v>
+        <v>0.07658994071230434</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H15">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I15">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J15">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1607635</v>
+        <v>0.202277</v>
       </c>
       <c r="N15">
-        <v>0.321527</v>
+        <v>0.404554</v>
       </c>
       <c r="O15">
-        <v>0.08381322403396319</v>
+        <v>0.08311870999996575</v>
       </c>
       <c r="P15">
-        <v>0.05748138269106486</v>
+        <v>0.0569914931299551</v>
       </c>
       <c r="Q15">
-        <v>8.495310727979334</v>
+        <v>17.310744091523</v>
       </c>
       <c r="R15">
-        <v>50.971864367876</v>
+        <v>103.864464549138</v>
       </c>
       <c r="S15">
-        <v>0.02074181981330222</v>
+        <v>0.02509131040953151</v>
       </c>
       <c r="T15">
-        <v>0.01467184811799063</v>
+        <v>0.01769832981282844</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H16">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I16">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J16">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.16638</v>
+        <v>0.5530713333333334</v>
       </c>
       <c r="N16">
-        <v>0.49914</v>
+        <v>1.659214</v>
       </c>
       <c r="O16">
-        <v>0.08674135742734386</v>
+        <v>0.2272654615434663</v>
       </c>
       <c r="P16">
-        <v>0.08923436400805566</v>
+        <v>0.2337415605385816</v>
       </c>
       <c r="Q16">
-        <v>8.792106410479999</v>
+        <v>47.33151231079534</v>
       </c>
       <c r="R16">
-        <v>79.12895769431999</v>
+        <v>425.983610797158</v>
       </c>
       <c r="S16">
-        <v>0.02146646459262969</v>
+        <v>0.06860535059982174</v>
       </c>
       <c r="T16">
-        <v>0.02277664479068273</v>
+        <v>0.07258688976517927</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H17">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I17">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J17">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6061559999999999</v>
+        <v>0.6625783333333333</v>
       </c>
       <c r="N17">
-        <v>1.818468</v>
+        <v>1.987735</v>
       </c>
       <c r="O17">
-        <v>0.3160163135757245</v>
+        <v>0.2722635610602984</v>
       </c>
       <c r="P17">
-        <v>0.3250988409043574</v>
+        <v>0.280021914495151</v>
       </c>
       <c r="Q17">
-        <v>11.817999860436</v>
+        <v>15.73288641448083</v>
       </c>
       <c r="R17">
-        <v>70.90799916261599</v>
+        <v>94.39731848688498</v>
       </c>
       <c r="S17">
-        <v>0.0288543681929689</v>
+        <v>0.02280426159479485</v>
       </c>
       <c r="T17">
-        <v>0.0204103068813816</v>
+        <v>0.01608514407001161</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H18">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I18">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J18">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.296278</v>
       </c>
       <c r="O18">
-        <v>0.2252692898249037</v>
+        <v>0.1775534789114854</v>
       </c>
       <c r="P18">
-        <v>0.2317436849533886</v>
+        <v>0.1826129978482772</v>
       </c>
       <c r="Q18">
-        <v>8.424351279806</v>
+        <v>10.26001682094967</v>
       </c>
       <c r="R18">
-        <v>50.546107678836</v>
+        <v>61.560100925698</v>
       </c>
       <c r="S18">
-        <v>0.02056856798824359</v>
+        <v>0.01487153096945895</v>
       </c>
       <c r="T18">
-        <v>0.01454929742155682</v>
+        <v>0.01048973750765897</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H19">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I19">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J19">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.552724</v>
+        <v>0.5835723333333332</v>
       </c>
       <c r="N19">
-        <v>1.658172</v>
+        <v>1.750717</v>
       </c>
       <c r="O19">
-        <v>0.2881598151380647</v>
+        <v>0.2397987884847841</v>
       </c>
       <c r="P19">
-        <v>0.2964417274431336</v>
+        <v>0.2466320339880352</v>
       </c>
       <c r="Q19">
-        <v>10.776255872844</v>
+        <v>13.85689325030783</v>
       </c>
       <c r="R19">
-        <v>64.657535237064</v>
+        <v>83.14135950184699</v>
       </c>
       <c r="S19">
-        <v>0.0263108866448415</v>
+        <v>0.0200850759514998</v>
       </c>
       <c r="T19">
-        <v>0.01861116026353738</v>
+        <v>0.01416714761817773</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H20">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I20">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J20">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1607635</v>
+        <v>0.202277</v>
       </c>
       <c r="N20">
-        <v>0.321527</v>
+        <v>0.404554</v>
       </c>
       <c r="O20">
-        <v>0.08381322403396319</v>
+        <v>0.08311870999996575</v>
       </c>
       <c r="P20">
-        <v>0.05748138269106486</v>
+        <v>0.0569914931299551</v>
       </c>
       <c r="Q20">
-        <v>3.1343466377685</v>
+        <v>4.8030563409035</v>
       </c>
       <c r="R20">
-        <v>12.537386551074</v>
+        <v>19.212225363614</v>
       </c>
       <c r="S20">
-        <v>0.007652698679861877</v>
+        <v>0.006961860040614546</v>
       </c>
       <c r="T20">
-        <v>0.003608787584191738</v>
+        <v>0.003273730841434837</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H21">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I21">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J21">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.16638</v>
+        <v>0.5530713333333334</v>
       </c>
       <c r="N21">
-        <v>0.49914</v>
+        <v>1.659214</v>
       </c>
       <c r="O21">
-        <v>0.08674135742734386</v>
+        <v>0.2272654615434663</v>
       </c>
       <c r="P21">
-        <v>0.08923436400805566</v>
+        <v>0.2337415605385816</v>
       </c>
       <c r="Q21">
-        <v>3.24384946578</v>
+        <v>13.13264866761233</v>
       </c>
       <c r="R21">
-        <v>19.46309679468</v>
+        <v>78.79589200567401</v>
       </c>
       <c r="S21">
-        <v>0.007920056520014923</v>
+        <v>0.01903530908181722</v>
       </c>
       <c r="T21">
-        <v>0.005602298515438716</v>
+        <v>0.01342668727621149</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H22">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I22">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J22">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.6061559999999999</v>
+        <v>0.6625783333333333</v>
       </c>
       <c r="N22">
-        <v>1.818468</v>
+        <v>1.987735</v>
       </c>
       <c r="O22">
-        <v>0.3160163135757245</v>
+        <v>0.2722635610602984</v>
       </c>
       <c r="P22">
-        <v>0.3250988409043574</v>
+        <v>0.280021914495151</v>
       </c>
       <c r="Q22">
-        <v>30.49761835755599</v>
+        <v>50.81436897536278</v>
       </c>
       <c r="R22">
-        <v>274.478565218004</v>
+        <v>457.329320778265</v>
       </c>
       <c r="S22">
-        <v>0.07446179721524405</v>
+        <v>0.07365362797140865</v>
       </c>
       <c r="T22">
-        <v>0.07900648466491145</v>
+        <v>0.07792814594813914</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H23">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I23">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J23">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.296278</v>
       </c>
       <c r="O23">
-        <v>0.2252692898249037</v>
+        <v>0.1775534789114854</v>
       </c>
       <c r="P23">
-        <v>0.2317436849533886</v>
+        <v>0.1826129978482772</v>
       </c>
       <c r="Q23">
-        <v>21.73994358399267</v>
+        <v>33.13799303561356</v>
       </c>
       <c r="R23">
-        <v>195.659492255934</v>
+        <v>298.241937320522</v>
       </c>
       <c r="S23">
-        <v>0.05307939956632845</v>
+        <v>0.04803234714864993</v>
       </c>
       <c r="T23">
-        <v>0.05631903774411323</v>
+        <v>0.05081992376919555</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H24">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I24">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J24">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.552724</v>
+        <v>0.5835723333333332</v>
       </c>
       <c r="N24">
-        <v>1.658172</v>
+        <v>1.750717</v>
       </c>
       <c r="O24">
-        <v>0.2881598151380647</v>
+        <v>0.2397987884847841</v>
       </c>
       <c r="P24">
-        <v>0.2964417274431336</v>
+        <v>0.2466320339880352</v>
       </c>
       <c r="Q24">
-        <v>27.809286073324</v>
+        <v>44.75525138383144</v>
       </c>
       <c r="R24">
-        <v>250.283574659916</v>
+        <v>402.797262454483</v>
       </c>
       <c r="S24">
-        <v>0.06789806981040947</v>
+        <v>0.06487115163803053</v>
       </c>
       <c r="T24">
-        <v>0.07204214794529547</v>
+        <v>0.06863597506201194</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H25">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I25">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J25">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1607635</v>
+        <v>0.202277</v>
       </c>
       <c r="N25">
-        <v>0.321527</v>
+        <v>0.404554</v>
       </c>
       <c r="O25">
-        <v>0.08381322403396319</v>
+        <v>0.08311870999996575</v>
       </c>
       <c r="P25">
-        <v>0.05748138269106486</v>
+        <v>0.0569914931299551</v>
       </c>
       <c r="Q25">
-        <v>8.0885182507885</v>
+        <v>15.51300064630767</v>
       </c>
       <c r="R25">
-        <v>48.531109504731</v>
+        <v>93.078003877846</v>
       </c>
       <c r="S25">
-        <v>0.0197486111440172</v>
+        <v>0.02248554496223987</v>
       </c>
       <c r="T25">
-        <v>0.01396929612995939</v>
+        <v>0.0158603350828473</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H26">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I26">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J26">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.16638</v>
+        <v>0.5530713333333334</v>
       </c>
       <c r="N26">
-        <v>0.49914</v>
+        <v>1.659214</v>
       </c>
       <c r="O26">
-        <v>0.08674135742734386</v>
+        <v>0.2272654615434663</v>
       </c>
       <c r="P26">
-        <v>0.08923436400805566</v>
+        <v>0.2337415605385816</v>
       </c>
       <c r="Q26">
-        <v>8.37110206338</v>
+        <v>42.41607276879845</v>
       </c>
       <c r="R26">
-        <v>75.33991857041998</v>
+        <v>381.744654919186</v>
       </c>
       <c r="S26">
-        <v>0.02043855677527288</v>
+        <v>0.06148059508986502</v>
       </c>
       <c r="T26">
-        <v>0.02168599983922945</v>
+        <v>0.06504864619840961</v>
       </c>
     </row>
   </sheetData>
